--- a/templates/Excel_files/02_make_aliasdb_template.xlsx
+++ b/templates/Excel_files/02_make_aliasdb_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/ebutterfield_dundee_ac_uk/Documents/My files/Bioinformatics/batch_brb/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/ebutterfield_dundee_ac_uk/Documents/My files/Bioinformatics/batch_brb/templates/Excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="32" documentId="8_{C6FFECAD-DB1C-2D46-B9E7-1703587768B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8AD7E5F6-F6DB-3A44-B43E-708AC28ABEEA}"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
